--- a/csdata/Fe/SI/Fe3+.xlsx
+++ b/csdata/Fe/SI/Fe3+.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmondeel/Documents/CfA/Chandra/CHANDRA-Rates/csdata/Fe/SI/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845F815E-4E89-6444-A2D3-BBF4000840B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="15120" yWindow="780" windowWidth="15120" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Energy (eV)</t>
   </si>
@@ -30,29 +52,42 @@
   <si>
     <t>Electron impact single ionization of multiply charged iron ions Stenke 1999</t>
   </si>
+  <si>
+    <t>Unc at peak</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,51 +95,54 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -294,20 +332,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -323,145 +366,152 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>29.9840895387327</v>
       </c>
       <c r="B2" s="4">
-        <v>0.0214132762312635</v>
+        <v>2.14132762312635E-2</v>
       </c>
       <c r="C2" s="4">
-        <v>0.0053533190578161</v>
+        <v>5.3533190578160996E-3</v>
       </c>
       <c r="D2" s="5">
-        <v>-17.0</v>
+        <v>-17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="F2">
+        <f>_xlfn.XLOOKUP(MAX(B:B),B:B,C:C)/MAX(B:B)</f>
+        <v>3.94444444444439E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>34.0344961095706</v>
+        <v>34.034496109570597</v>
       </c>
       <c r="B3" s="4">
-        <v>0.0267665952890787</v>
+        <v>2.6766595289078699E-2</v>
       </c>
       <c r="C3" s="4">
-        <v>0.0026766595289085</v>
+        <v>2.6766595289085E-3</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>38.0250003556193</v>
+        <v>38.025000355619298</v>
       </c>
       <c r="B4" s="4">
-        <v>0.144539614561028</v>
+        <v>0.14453961456102801</v>
       </c>
       <c r="C4" s="4">
-        <v>0.0026766595289079986</v>
+        <v>2.6766595289079986E-3</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>39.9657115885259</v>
+        <v>39.965711588525899</v>
       </c>
       <c r="B5" s="4">
         <v>0.235546038543897</v>
       </c>
       <c r="C5" s="4">
-        <v>0.005353319057815498</v>
+        <v>5.3533190578154977E-3</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>44.0495570173889</v>
+        <v>44.049557017388899</v>
       </c>
       <c r="B6" s="4">
-        <v>0.497858672376874</v>
+        <v>0.49785867237687398</v>
       </c>
       <c r="C6" s="4">
-        <v>0.008029978586723496</v>
+        <v>8.0299785867234963E-3</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>46.0887114622398</v>
       </c>
       <c r="B7" s="4">
-        <v>0.572805139186296</v>
+        <v>0.57280513918629605</v>
       </c>
       <c r="C7" s="4">
-        <v>0.013383297644538994</v>
+        <v>1.3383297644538994E-2</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>50.1132599682578</v>
       </c>
       <c r="B8" s="4">
-        <v>0.813704496788009</v>
+        <v>0.81370449678800905</v>
       </c>
       <c r="C8" s="4">
-        <v>0.03747323340471048</v>
+        <v>3.7473233404710482E-2</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>52.5518885138153</v>
       </c>
       <c r="B9" s="4">
-        <v>1.07066381156316</v>
+        <v>1.0706638115631599</v>
       </c>
       <c r="C9" s="4">
-        <v>0.04550321199143503</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>4.5503211991435033E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>54.9846352723344</v>
+        <v>54.984635272334401</v>
       </c>
       <c r="B10" s="4">
         <v>1.52569593147751</v>
       </c>
       <c r="C10" s="4">
-        <v>0.06156316916488502</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>6.1563169164885023E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>57.5299994259359</v>
+        <v>57.529999425935898</v>
       </c>
       <c r="B11" s="4">
-        <v>1.90042826552462</v>
+        <v>1.9004282655246201</v>
       </c>
       <c r="C11" s="4">
-        <v>0.08029978586723996</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>8.0299785867239959E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>60.0571528661052</v>
+        <v>60.057152866105199</v>
       </c>
       <c r="B12" s="4">
-        <v>2.18415417558886</v>
+        <v>2.1841541755888598</v>
       </c>
       <c r="C12" s="4">
-        <v>0.08565310492505507</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>8.5653104925055068E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>65.0066111689117</v>
+        <v>65.006611168911704</v>
       </c>
       <c r="B13" s="4">
         <v>2.67665952890792</v>
@@ -470,20 +520,20 @@
         <v>0.10706638115631506</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>70.0462696078342</v>
+        <v>70.046269607834205</v>
       </c>
       <c r="B14" s="4">
-        <v>3.09957173447537</v>
+        <v>3.0995717344753699</v>
       </c>
       <c r="C14" s="4">
         <v>0.12044967880085511</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>75.1358483047095</v>
+        <v>75.135848304709498</v>
       </c>
       <c r="B15" s="4">
         <v>3.38865096359743</v>
@@ -492,42 +542,42 @@
         <v>0.13383297644539494</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>80.0500160985117</v>
+        <v>80.050016098511705</v>
       </c>
       <c r="B16" s="4">
-        <v>3.5813704496788</v>
+        <v>3.5813704496788001</v>
       </c>
       <c r="C16" s="4">
         <v>0.13918629550320993</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>90.0449328225434</v>
+        <v>90.044932822543402</v>
       </c>
       <c r="B17" s="4">
-        <v>3.93468950749464</v>
+        <v>3.9346895074946402</v>
       </c>
       <c r="C17" s="4">
-        <v>0.1552462526766598</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0.15524625267665981</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>100.148368334687</v>
+        <v>100.14836833468701</v>
       </c>
       <c r="B18" s="4">
-        <v>4.24518201284796</v>
+        <v>4.2451820128479598</v>
       </c>
       <c r="C18" s="4">
         <v>0.16595289079229003</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>110.132430120044</v>
+        <v>110.13243012004401</v>
       </c>
       <c r="B19" s="4">
         <v>4.41648822269807</v>
@@ -536,400 +586,400 @@
         <v>0.17398286937901508</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>120.020646634784</v>
       </c>
-      <c r="B20" s="6">
-        <v>4.58779443254818</v>
+      <c r="B20" s="5">
+        <v>4.5877944325481801</v>
       </c>
       <c r="C20" s="4">
         <v>0.17665952890792003</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>129.911844562849</v>
-      </c>
-      <c r="B21" s="6">
-        <v>4.67344753747323</v>
+        <v>129.91184456284901</v>
+      </c>
+      <c r="B21" s="5">
+        <v>4.6734475374732298</v>
       </c>
       <c r="C21" s="4">
         <v>0.18201284796574013</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>139.983302096083</v>
-      </c>
-      <c r="B22" s="6">
+        <v>139.98330209608301</v>
+      </c>
+      <c r="B22" s="5">
         <v>4.76980728051391</v>
       </c>
       <c r="C22" s="4">
         <v>0.18468950749464996</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>150.154522294608</v>
       </c>
-      <c r="B23" s="6">
-        <v>4.79657387580299</v>
+      <c r="B23" s="5">
+        <v>4.7965738758029897</v>
       </c>
       <c r="C23" s="4">
         <v>0.18736616702355535</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
-        <v>159.975194240194</v>
-      </c>
-      <c r="B24" s="6">
-        <v>4.80728051391863</v>
+        <v>159.97519424019401</v>
+      </c>
+      <c r="B24" s="5">
+        <v>4.8072805139186299</v>
       </c>
       <c r="C24" s="4">
         <v>0.18736616702355002</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="6">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
         <v>170.052971279236</v>
       </c>
-      <c r="B25" s="6">
-        <v>4.81798715203426</v>
+      <c r="B25" s="5">
+        <v>4.8179871520342603</v>
       </c>
       <c r="C25" s="4">
         <v>0.19004282655245985</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="6">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
         <v>185.321140674492</v>
       </c>
-      <c r="B26" s="6">
-        <v>4.79122055674518</v>
+      <c r="B26" s="5">
+        <v>4.7912205567451798</v>
       </c>
       <c r="C26" s="4">
         <v>0.18468950749464508</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="6">
-        <v>199.688221710052</v>
-      </c>
-      <c r="B27" s="6">
-        <v>4.75910064239828</v>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5">
+        <v>199.68822171005201</v>
+      </c>
+      <c r="B27" s="5">
+        <v>4.7591006423982796</v>
       </c>
       <c r="C27" s="4">
-        <v>0.1846895074946504</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="6">
+        <v>0.18468950749465041</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5">
         <v>212.748584374084</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>4.72698072805139</v>
       </c>
       <c r="C28" s="4">
         <v>0.18468950749464508</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="6">
-        <v>225.129784343303</v>
-      </c>
-      <c r="B29" s="6">
-        <v>4.74304068522483</v>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5">
+        <v>225.12978434330299</v>
+      </c>
+      <c r="B29" s="5">
+        <v>4.7430406852248304</v>
       </c>
       <c r="C29" s="4">
-        <v>0.1873661670235549</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="6">
+        <v>0.18736616702355491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5">
         <v>249.824429208189</v>
       </c>
-      <c r="B30" s="6">
-        <v>4.64668094218415</v>
+      <c r="B30" s="5">
+        <v>4.6466809421841502</v>
       </c>
       <c r="C30" s="4">
         <v>0.18201284796574013</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="6">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5">
         <v>274.730102442629</v>
       </c>
-      <c r="B31" s="6">
-        <v>4.5289079229122</v>
+      <c r="B31" s="5">
+        <v>4.5289079229122002</v>
       </c>
       <c r="C31" s="4">
         <v>0.17933618843682986</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="6">
-        <v>300.074878692874</v>
-      </c>
-      <c r="B32" s="6">
-        <v>4.44860813704496</v>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5">
+        <v>300.07487869287399</v>
+      </c>
+      <c r="B32" s="5">
+        <v>4.4486081370449604</v>
       </c>
       <c r="C32" s="4">
         <v>0.17398286937901464</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="6">
-        <v>310.434088720534</v>
-      </c>
-      <c r="B33" s="6">
-        <v>4.36295503211991</v>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5">
+        <v>310.43408872053402</v>
+      </c>
+      <c r="B33" s="5">
+        <v>4.3629550321199098</v>
       </c>
       <c r="C33" s="4">
         <v>0.17130620985010525</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="6">
-        <v>324.804790600642</v>
-      </c>
-      <c r="B34" s="6">
-        <v>4.24518201284796</v>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5">
+        <v>324.80479060064198</v>
+      </c>
+      <c r="B34" s="5">
+        <v>4.2451820128479598</v>
       </c>
       <c r="C34" s="4">
         <v>0.16595289079229003</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="6">
-        <v>349.985386458803</v>
-      </c>
-      <c r="B35" s="6">
-        <v>4.23447537473233</v>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5">
+        <v>349.98538645880302</v>
+      </c>
+      <c r="B35" s="5">
+        <v>4.2344753747323303</v>
       </c>
       <c r="C35" s="4">
         <v>0.16327623126338509</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="6">
-        <v>375.415408315943</v>
-      </c>
-      <c r="B36" s="6">
-        <v>4.08458244111349</v>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="5">
+        <v>375.41540831594301</v>
+      </c>
+      <c r="B36" s="5">
+        <v>4.0845824411134899</v>
       </c>
       <c r="C36" s="4">
         <v>0.16059957173447525</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="6">
-        <v>399.968991598342</v>
-      </c>
-      <c r="B37" s="6">
-        <v>4.05246252676659</v>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5">
+        <v>399.96899159834197</v>
+      </c>
+      <c r="B37" s="5">
+        <v>4.0524625267665897</v>
       </c>
       <c r="C37" s="4">
-        <v>0.1579229122055703</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="6">
-        <v>449.908478909634</v>
-      </c>
-      <c r="B38" s="6">
-        <v>3.90792291220556</v>
+        <v>0.15792291220557031</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5">
+        <v>449.90847890963403</v>
+      </c>
+      <c r="B38" s="5">
+        <v>3.9079229122055601</v>
       </c>
       <c r="C38" s="4">
         <v>0.14989293361884481</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="6">
-        <v>500.390179106897</v>
-      </c>
-      <c r="B39" s="6">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="5">
+        <v>500.39017910689699</v>
+      </c>
+      <c r="B39" s="5">
         <v>3.72591006423982</v>
       </c>
       <c r="C39" s="4">
         <v>0.14453961456102982</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="6">
-        <v>550.275429841017</v>
-      </c>
-      <c r="B40" s="6">
-        <v>3.59207708779443</v>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="5">
+        <v>550.27542984101694</v>
+      </c>
+      <c r="B40" s="5">
+        <v>3.5920770877944301</v>
       </c>
       <c r="C40" s="4">
-        <v>0.14186295503212</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="6">
-        <v>599.681790774654</v>
-      </c>
-      <c r="B41" s="6">
-        <v>3.45289079229122</v>
+        <v>0.14186295503211999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5">
+        <v>599.68179077465402</v>
+      </c>
+      <c r="B41" s="5">
+        <v>3.4528907922912202</v>
       </c>
       <c r="C41" s="4">
         <v>0.13383297644539494</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="6">
-        <v>650.573396118883</v>
-      </c>
-      <c r="B42" s="6">
-        <v>3.29764453961456</v>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="5">
+        <v>650.57339611888301</v>
+      </c>
+      <c r="B42" s="5">
+        <v>3.2976445396145602</v>
       </c>
       <c r="C42" s="4">
         <v>0.12580299785866988</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="6">
-        <v>699.424970896632</v>
-      </c>
-      <c r="B43" s="6">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="5">
+        <v>699.42497089663198</v>
+      </c>
+      <c r="B43" s="5">
         <v>3.23340471092077</v>
       </c>
       <c r="C43" s="4">
-        <v>0.1258029978586701</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="6">
-        <v>760.500007112386</v>
-      </c>
-      <c r="B44" s="6">
-        <v>3.0406852248394</v>
+        <v>0.12580299785867011</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="5">
+        <v>760.50000711238602</v>
+      </c>
+      <c r="B44" s="5">
+        <v>3.0406852248393998</v>
       </c>
       <c r="C44" s="4">
         <v>0.12044967880085511</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="6">
-        <v>819.458014763112</v>
-      </c>
-      <c r="B45" s="6">
-        <v>2.906852248394</v>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="5">
+        <v>819.45801476311203</v>
+      </c>
+      <c r="B45" s="5">
+        <v>2.9068522483939998</v>
       </c>
       <c r="C45" s="4">
         <v>0.11241970021413517</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="6">
-        <v>899.115325789639</v>
-      </c>
-      <c r="B46" s="6">
-        <v>2.75160599571734</v>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="5">
+        <v>899.11532578963897</v>
+      </c>
+      <c r="B46" s="5">
+        <v>2.7516059957173402</v>
       </c>
       <c r="C46" s="4">
         <v>0.10706638115631484</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="6">
-        <v>999.999999999998</v>
-      </c>
-      <c r="B47" s="6">
-        <v>2.56423982869379</v>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="5">
+        <v>999.99999999999795</v>
+      </c>
+      <c r="B47" s="5">
+        <v>2.5642398286937902</v>
       </c>
       <c r="C47" s="4">
-        <v>0.09903640256959001</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+        <v>9.903640256959001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
       <c r="C48" s="4"/>
     </row>
-    <row r="49">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
       <c r="C49" s="4"/>
     </row>
-    <row r="50">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
+    <row r="50" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="4"/>
     </row>
-    <row r="51">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+    <row r="51" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
       <c r="C51" s="4"/>
     </row>
-    <row r="52">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+    <row r="52" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
       <c r="C52" s="4"/>
     </row>
-    <row r="53">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
+    <row r="53" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
       <c r="C53" s="4"/>
     </row>
-    <row r="54">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
+    <row r="54" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
       <c r="C54" s="4"/>
     </row>
-    <row r="55">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+    <row r="55" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
+    <row r="56" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
       <c r="C56" s="4"/>
     </row>
-    <row r="57">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
+    <row r="57" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
       <c r="C57" s="4"/>
     </row>
-    <row r="58">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
+    <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
       <c r="C58" s="4"/>
     </row>
-    <row r="59">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
+    <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
       <c r="C59" s="4"/>
     </row>
-    <row r="60">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
+    <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
       <c r="C60" s="4"/>
     </row>
-    <row r="61">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
+    <row r="61" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="62">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
+    <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
       <c r="C62" s="4"/>
     </row>
-    <row r="63">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
+    <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
       <c r="C63" s="4"/>
     </row>
-    <row r="64">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
+    <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
       <c r="C64" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>